--- a/biology/Médecine/Otto_Sprengel/Otto_Sprengel.xlsx
+++ b/biology/Médecine/Otto_Sprengel/Otto_Sprengel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto Sprengel (né le 27 décembre 1852 à Waren (Müritz) en grand-duché de Mecklembourg-Schwerin  ; mort le 8 janvier 1915 à Berlin) est un chirurgien allemand. Il a donné son nom à l'anomalie de Sprengel.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sprengel suivit les cours du lycée d'État de Waren, il étudia ensuite la médecine à l'université de Tübingen de 1872 à 1874 puis à l'université Louis-et-Maximilien de Munich et à l'université de Rostock. Il termina ses études à l'université de Marbourg où il obtint son doctorat en médecine en 1877.
 Il commença ses études de chirurgie à Marbourg auprès de Wilhelm Roser (de). De 1878 à 1881, il étudia à la Clinique obstétrique de l'université de Halle de 1878 à 1881. Après une courte période comme chirurgien privé à Francfort, il fut nommé assistant directeur médical de l'Hôpital pour enfants de Dresde en 1882. Il a pris la tête du département de chirurgie de l'Hôpital régional de Brunswick en 1886.
@@ -544,7 +558,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Appendicitis. Enke, Stuttgart 1906.</t>
         </is>
